--- a/TestCaseDocument/TestCaseDocument.xlsx
+++ b/TestCaseDocument/TestCaseDocument.xlsx
@@ -819,32 +819,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1183,10 +1162,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="8" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,12 +1992,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -2030,39 +2000,45 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G2 G5:G1048576">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Negetive"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Positive"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Negetive"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Positive"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Manual"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Automated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TestCaseDocument/TestCaseDocument.xlsx
+++ b/TestCaseDocument/TestCaseDocument.xlsx
@@ -1161,15 +1161,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" style="7" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="7" customWidth="1"/>
@@ -1992,6 +1992,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -2000,12 +2006,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G2 G5:G1048576">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
